--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Tnc-Egfr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Tnc-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,15 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,15 +98,6 @@
   </si>
   <si>
     <t>Egfr</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.634738961182449</v>
+        <v>5.215822</v>
       </c>
       <c r="H2">
-        <v>0.634738961182449</v>
+        <v>15.647466</v>
       </c>
       <c r="I2">
-        <v>0.005354333876475</v>
+        <v>0.04031814991753076</v>
       </c>
       <c r="J2">
-        <v>0.005354333876475</v>
+        <v>0.04031814991753075</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N2">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O2">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P2">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q2">
-        <v>0.3465116276734421</v>
+        <v>3.643950587148001</v>
       </c>
       <c r="R2">
-        <v>0.3465116276734421</v>
+        <v>32.795555284332</v>
       </c>
       <c r="S2">
-        <v>4.476683952629535E-05</v>
+        <v>0.0004046330626739731</v>
       </c>
       <c r="T2">
-        <v>4.476683952629535E-05</v>
+        <v>0.0004046330626739729</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.634738961182449</v>
+        <v>5.215822</v>
       </c>
       <c r="H3">
-        <v>0.634738961182449</v>
+        <v>15.647466</v>
       </c>
       <c r="I3">
-        <v>0.005354333876475</v>
+        <v>0.04031814991753076</v>
       </c>
       <c r="J3">
-        <v>0.005354333876475</v>
+        <v>0.04031814991753075</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N3">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O3">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P3">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q3">
-        <v>28.98393491988394</v>
+        <v>239.4915797726007</v>
       </c>
       <c r="R3">
-        <v>28.98393491988394</v>
+        <v>2155.424217953406</v>
       </c>
       <c r="S3">
-        <v>0.003744518393540994</v>
+        <v>0.02659372268926974</v>
       </c>
       <c r="T3">
-        <v>0.003744518393540994</v>
+        <v>0.02659372268926973</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.634738961182449</v>
+        <v>5.215822</v>
       </c>
       <c r="H4">
-        <v>0.634738961182449</v>
+        <v>15.647466</v>
       </c>
       <c r="I4">
-        <v>0.005354333876475</v>
+        <v>0.04031814991753076</v>
       </c>
       <c r="J4">
-        <v>0.005354333876475</v>
+        <v>0.04031814991753075</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N4">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O4">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P4">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q4">
-        <v>0.1068988758104559</v>
+        <v>1.215632508859333</v>
       </c>
       <c r="R4">
-        <v>0.1068988758104559</v>
+        <v>10.940692579734</v>
       </c>
       <c r="S4">
-        <v>1.381057499016457E-05</v>
+        <v>0.0001349867659788384</v>
       </c>
       <c r="T4">
-        <v>1.381057499016457E-05</v>
+        <v>0.0001349867659788383</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.634738961182449</v>
+        <v>5.215822</v>
       </c>
       <c r="H5">
-        <v>0.634738961182449</v>
+        <v>15.647466</v>
       </c>
       <c r="I5">
-        <v>0.005354333876475</v>
+        <v>0.04031814991753076</v>
       </c>
       <c r="J5">
-        <v>0.005354333876475</v>
+        <v>0.04031814991753075</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N5">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O5">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P5">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q5">
-        <v>0.2655021555694889</v>
+        <v>2.285406294096</v>
       </c>
       <c r="R5">
-        <v>0.2655021555694889</v>
+        <v>20.568656646864</v>
       </c>
       <c r="S5">
-        <v>3.430099149072734E-05</v>
+        <v>0.0002537770274646373</v>
       </c>
       <c r="T5">
-        <v>3.430099149072734E-05</v>
+        <v>0.0002537770274646372</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.634738961182449</v>
+        <v>5.215822</v>
       </c>
       <c r="H6">
-        <v>0.634738961182449</v>
+        <v>15.647466</v>
       </c>
       <c r="I6">
-        <v>0.005354333876475</v>
+        <v>0.04031814991753076</v>
       </c>
       <c r="J6">
-        <v>0.005354333876475</v>
+        <v>0.04031814991753075</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N6">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O6">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P6">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q6">
-        <v>1.573925027425092</v>
+        <v>13.24775322816667</v>
       </c>
       <c r="R6">
-        <v>1.573925027425092</v>
+        <v>119.2297790535</v>
       </c>
       <c r="S6">
-        <v>0.0002033399271540792</v>
+        <v>0.001471062473011623</v>
       </c>
       <c r="T6">
-        <v>0.0002033399271540792</v>
+        <v>0.001471062473011622</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.634738961182449</v>
+        <v>5.215822</v>
       </c>
       <c r="H7">
-        <v>0.634738961182449</v>
+        <v>15.647466</v>
       </c>
       <c r="I7">
-        <v>0.005354333876475</v>
+        <v>0.04031814991753076</v>
       </c>
       <c r="J7">
-        <v>0.005354333876475</v>
+        <v>0.04031814991753075</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.0187424315542</v>
+        <v>19.78662633333333</v>
       </c>
       <c r="N7">
-        <v>16.0187424315542</v>
+        <v>59.35987900000001</v>
       </c>
       <c r="O7">
-        <v>0.2453334401771635</v>
+        <v>0.284238436599221</v>
       </c>
       <c r="P7">
-        <v>0.2453334401771635</v>
+        <v>0.2842384365992209</v>
       </c>
       <c r="Q7">
-        <v>10.16771993045393</v>
+        <v>103.2035209351793</v>
       </c>
       <c r="R7">
-        <v>10.16771993045393</v>
+        <v>928.831688416614</v>
       </c>
       <c r="S7">
-        <v>0.001313597149772739</v>
+        <v>0.01145996789913195</v>
       </c>
       <c r="T7">
-        <v>0.001313597149772739</v>
+        <v>0.01145996789913195</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>83.6702630614527</v>
+        <v>84.97076433333332</v>
       </c>
       <c r="H8">
-        <v>83.6702630614527</v>
+        <v>254.912293</v>
       </c>
       <c r="I8">
-        <v>0.7057996300226143</v>
+        <v>0.6568214971673704</v>
       </c>
       <c r="J8">
-        <v>0.7057996300226143</v>
+        <v>0.6568214971673704</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N8">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O8">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P8">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q8">
-        <v>45.67660221656915</v>
+        <v>59.363464969254</v>
       </c>
       <c r="R8">
-        <v>45.67660221656915</v>
+        <v>534.271184723286</v>
       </c>
       <c r="S8">
-        <v>0.005901092368140172</v>
+        <v>0.006591862339233405</v>
       </c>
       <c r="T8">
-        <v>0.005901092368140172</v>
+        <v>0.006591862339233403</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>83.6702630614527</v>
+        <v>84.97076433333332</v>
       </c>
       <c r="H9">
-        <v>83.6702630614527</v>
+        <v>254.912293</v>
       </c>
       <c r="I9">
-        <v>0.7057996300226143</v>
+        <v>0.6568214971673704</v>
       </c>
       <c r="J9">
-        <v>0.7057996300226143</v>
+        <v>0.6568214971673704</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N9">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O9">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P9">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q9">
-        <v>3820.61541453991</v>
+        <v>3901.548516163963</v>
       </c>
       <c r="R9">
-        <v>3820.61541453991</v>
+        <v>35113.93664547567</v>
       </c>
       <c r="S9">
-        <v>0.4935963572211964</v>
+        <v>0.4332373580570729</v>
       </c>
       <c r="T9">
-        <v>0.4935963572211964</v>
+        <v>0.4332373580570729</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>83.6702630614527</v>
+        <v>84.97076433333332</v>
       </c>
       <c r="H10">
-        <v>83.6702630614527</v>
+        <v>254.912293</v>
       </c>
       <c r="I10">
-        <v>0.7057996300226143</v>
+        <v>0.6568214971673704</v>
       </c>
       <c r="J10">
-        <v>0.7057996300226143</v>
+        <v>0.6568214971673704</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N10">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O10">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P10">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q10">
-        <v>14.09123688165012</v>
+        <v>19.80382448370078</v>
       </c>
       <c r="R10">
-        <v>14.09123688165012</v>
+        <v>178.234420353307</v>
       </c>
       <c r="S10">
-        <v>0.00182048765417575</v>
+        <v>0.002199064438952612</v>
       </c>
       <c r="T10">
-        <v>0.00182048765417575</v>
+        <v>0.002199064438952611</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>83.6702630614527</v>
+        <v>84.97076433333332</v>
       </c>
       <c r="H11">
-        <v>83.6702630614527</v>
+        <v>254.912293</v>
       </c>
       <c r="I11">
-        <v>0.7057996300226143</v>
+        <v>0.6568214971673704</v>
       </c>
       <c r="J11">
-        <v>0.7057996300226143</v>
+        <v>0.6568214971673704</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N11">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O11">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P11">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q11">
-        <v>34.99806465085813</v>
+        <v>37.231469866408</v>
       </c>
       <c r="R11">
-        <v>34.99806465085813</v>
+        <v>335.083228797672</v>
       </c>
       <c r="S11">
-        <v>0.004521501210436748</v>
+        <v>0.00413427221901199</v>
       </c>
       <c r="T11">
-        <v>0.004521501210436748</v>
+        <v>0.00413427221901199</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>83.6702630614527</v>
+        <v>84.97076433333332</v>
       </c>
       <c r="H12">
-        <v>83.6702630614527</v>
+        <v>254.912293</v>
       </c>
       <c r="I12">
-        <v>0.7057996300226143</v>
+        <v>0.6568214971673704</v>
       </c>
       <c r="J12">
-        <v>0.7057996300226143</v>
+        <v>0.6568214971673704</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N12">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O12">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P12">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q12">
-        <v>207.4722510153406</v>
+        <v>215.8186605096388</v>
       </c>
       <c r="R12">
-        <v>207.4722510153406</v>
+        <v>1942.36794458675</v>
       </c>
       <c r="S12">
-        <v>0.02680394025944798</v>
+        <v>0.02396502463348655</v>
       </c>
       <c r="T12">
-        <v>0.02680394025944798</v>
+        <v>0.02396502463348655</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>83.6702630614527</v>
+        <v>84.97076433333332</v>
       </c>
       <c r="H13">
-        <v>83.6702630614527</v>
+        <v>254.912293</v>
       </c>
       <c r="I13">
-        <v>0.7057996300226143</v>
+        <v>0.6568214971673704</v>
       </c>
       <c r="J13">
-        <v>0.7057996300226143</v>
+        <v>0.6568214971673704</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.0187424315542</v>
+        <v>19.78662633333333</v>
       </c>
       <c r="N13">
-        <v>16.0187424315542</v>
+        <v>59.35987900000001</v>
       </c>
       <c r="O13">
-        <v>0.2453334401771635</v>
+        <v>0.284238436599221</v>
       </c>
       <c r="P13">
-        <v>0.2453334401771635</v>
+        <v>0.2842384365992209</v>
       </c>
       <c r="Q13">
-        <v>1340.292393161795</v>
+        <v>1681.284763121394</v>
       </c>
       <c r="R13">
-        <v>1340.292393161795</v>
+        <v>15131.56286809255</v>
       </c>
       <c r="S13">
-        <v>0.1731562513092171</v>
+        <v>0.186693915479613</v>
       </c>
       <c r="T13">
-        <v>0.1731562513092171</v>
+        <v>0.186693915479613</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>34.2417632381682</v>
+        <v>0.03355766666666667</v>
       </c>
       <c r="H14">
-        <v>34.2417632381682</v>
+        <v>0.100673</v>
       </c>
       <c r="I14">
-        <v>0.2888460361009108</v>
+        <v>0.0002593997716082319</v>
       </c>
       <c r="J14">
-        <v>0.2888460361009108</v>
+        <v>0.0002593997716082318</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N14">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O14">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P14">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q14">
-        <v>18.69299009464109</v>
+        <v>0.023444526894</v>
       </c>
       <c r="R14">
-        <v>18.69299009464109</v>
+        <v>0.211000742046</v>
       </c>
       <c r="S14">
-        <v>0.002415001463160319</v>
+        <v>2.603336816234456E-06</v>
       </c>
       <c r="T14">
-        <v>0.002415001463160319</v>
+        <v>2.603336816234454E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>34.2417632381682</v>
+        <v>0.03355766666666667</v>
       </c>
       <c r="H15">
-        <v>34.2417632381682</v>
+        <v>0.100673</v>
       </c>
       <c r="I15">
-        <v>0.2888460361009108</v>
+        <v>0.0002593997716082319</v>
       </c>
       <c r="J15">
-        <v>0.2888460361009108</v>
+        <v>0.0002593997716082318</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N15">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O15">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P15">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q15">
-        <v>1563.573528538874</v>
+        <v>1.540846026471445</v>
       </c>
       <c r="R15">
-        <v>1563.573528538874</v>
+        <v>13.867614238243</v>
       </c>
       <c r="S15">
-        <v>0.2020025870693976</v>
+        <v>0.0001710992594134317</v>
       </c>
       <c r="T15">
-        <v>0.2020025870693976</v>
+        <v>0.0001710992594134316</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>34.2417632381682</v>
+        <v>0.03355766666666667</v>
       </c>
       <c r="H16">
-        <v>34.2417632381682</v>
+        <v>0.100673</v>
       </c>
       <c r="I16">
-        <v>0.2888460361009108</v>
+        <v>0.0002593997716082319</v>
       </c>
       <c r="J16">
-        <v>0.2888460361009108</v>
+        <v>0.0002593997716082318</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N16">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O16">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P16">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q16">
-        <v>5.766789530469413</v>
+        <v>0.007821162325222222</v>
       </c>
       <c r="R16">
-        <v>5.766789530469413</v>
+        <v>0.07039046092700001</v>
       </c>
       <c r="S16">
-        <v>0.0007450282209165551</v>
+        <v>8.684807298119449E-07</v>
       </c>
       <c r="T16">
-        <v>0.0007450282209165551</v>
+        <v>8.684807298119446E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>34.2417632381682</v>
+        <v>0.03355766666666667</v>
       </c>
       <c r="H17">
-        <v>34.2417632381682</v>
+        <v>0.100673</v>
       </c>
       <c r="I17">
-        <v>0.2888460361009108</v>
+        <v>0.0002593997716082319</v>
       </c>
       <c r="J17">
-        <v>0.2888460361009108</v>
+        <v>0.0002593997716082318</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N17">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O17">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P17">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q17">
-        <v>14.32283585254908</v>
+        <v>0.014703895688</v>
       </c>
       <c r="R17">
-        <v>14.32283585254908</v>
+        <v>0.132335061192</v>
       </c>
       <c r="S17">
-        <v>0.001850408595167837</v>
+        <v>1.632756044074321E-06</v>
       </c>
       <c r="T17">
-        <v>0.001850408595167837</v>
+        <v>1.63275604407432E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>34.2417632381682</v>
+        <v>0.03355766666666667</v>
       </c>
       <c r="H18">
-        <v>34.2417632381682</v>
+        <v>0.100673</v>
       </c>
       <c r="I18">
-        <v>0.2888460361009108</v>
+        <v>0.0002593997716082319</v>
       </c>
       <c r="J18">
-        <v>0.2888460361009108</v>
+        <v>0.0002593997716082318</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N18">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O18">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P18">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q18">
-        <v>84.90729487176721</v>
+        <v>0.08523367686111111</v>
       </c>
       <c r="R18">
-        <v>84.90729487176721</v>
+        <v>0.76710309175</v>
       </c>
       <c r="S18">
-        <v>0.01096941903409485</v>
+        <v>9.464553068560692E-06</v>
       </c>
       <c r="T18">
-        <v>0.01096941903409485</v>
+        <v>9.464553068560689E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,1177 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.03355766666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.100673</v>
+      </c>
+      <c r="I19">
+        <v>0.0002593997716082319</v>
+      </c>
+      <c r="J19">
+        <v>0.0002593997716082318</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>19.78662633333333</v>
+      </c>
+      <c r="N19">
+        <v>59.35987900000001</v>
+      </c>
+      <c r="O19">
+        <v>0.284238436599221</v>
+      </c>
+      <c r="P19">
+        <v>0.2842384365992209</v>
+      </c>
+      <c r="Q19">
+        <v>0.6639930109518889</v>
+      </c>
+      <c r="R19">
+        <v>5.975937098567001</v>
+      </c>
+      <c r="S19">
+        <v>7.373138553611883E-05</v>
+      </c>
+      <c r="T19">
+        <v>7.373138553611879E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.1030903333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.309271</v>
+      </c>
+      <c r="I20">
+        <v>0.0007968852300522433</v>
+      </c>
+      <c r="J20">
+        <v>0.0007968852300522432</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.6986340000000001</v>
+      </c>
+      <c r="N20">
+        <v>2.095902</v>
+      </c>
+      <c r="O20">
+        <v>0.0100360027308206</v>
+      </c>
+      <c r="P20">
+        <v>0.0100360027308206</v>
+      </c>
+      <c r="Q20">
+        <v>0.07202241193800002</v>
+      </c>
+      <c r="R20">
+        <v>0.6482017074420001</v>
+      </c>
+      <c r="S20">
+        <v>7.997542344954916E-06</v>
+      </c>
+      <c r="T20">
+        <v>7.997542344954914E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.1030903333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.309271</v>
+      </c>
+      <c r="I21">
+        <v>0.0007968852300522433</v>
+      </c>
+      <c r="J21">
+        <v>0.0007968852300522432</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>45.91636366666668</v>
+      </c>
+      <c r="N21">
+        <v>137.749091</v>
+      </c>
+      <c r="O21">
+        <v>0.6595968005393648</v>
+      </c>
+      <c r="P21">
+        <v>0.6595968005393646</v>
+      </c>
+      <c r="Q21">
+        <v>4.733533235851223</v>
+      </c>
+      <c r="R21">
+        <v>42.60179912266101</v>
+      </c>
+      <c r="S21">
+        <v>0.0005256229481395353</v>
+      </c>
+      <c r="T21">
+        <v>0.0005256229481395352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.1030903333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.309271</v>
+      </c>
+      <c r="I22">
+        <v>0.0007968852300522433</v>
+      </c>
+      <c r="J22">
+        <v>0.0007968852300522432</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.2330663333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.699199</v>
+      </c>
+      <c r="O22">
+        <v>0.003348039685723394</v>
+      </c>
+      <c r="P22">
+        <v>0.003348039685723394</v>
+      </c>
+      <c r="Q22">
+        <v>0.02402688599211111</v>
+      </c>
+      <c r="R22">
+        <v>0.216241973929</v>
+      </c>
+      <c r="S22">
+        <v>2.668003375181727E-06</v>
+      </c>
+      <c r="T22">
+        <v>2.668003375181726E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.1030903333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.309271</v>
+      </c>
+      <c r="I23">
+        <v>0.0007968852300522433</v>
+      </c>
+      <c r="J23">
+        <v>0.0007968852300522432</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.4381680000000001</v>
+      </c>
+      <c r="N23">
+        <v>1.314504</v>
+      </c>
+      <c r="O23">
+        <v>0.006294361918484072</v>
+      </c>
+      <c r="P23">
+        <v>0.006294361918484071</v>
+      </c>
+      <c r="Q23">
+        <v>0.04517088517600001</v>
+      </c>
+      <c r="R23">
+        <v>0.406537966584</v>
+      </c>
+      <c r="S23">
+        <v>5.015884045443259E-06</v>
+      </c>
+      <c r="T23">
+        <v>5.015884045443258E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.1030903333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.309271</v>
+      </c>
+      <c r="I24">
+        <v>0.0007968852300522433</v>
+      </c>
+      <c r="J24">
+        <v>0.0007968852300522432</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.539916666666667</v>
+      </c>
+      <c r="N24">
+        <v>7.61975</v>
+      </c>
+      <c r="O24">
+        <v>0.03648635852638638</v>
+      </c>
+      <c r="P24">
+        <v>0.03648635852638638</v>
+      </c>
+      <c r="Q24">
+        <v>0.2618408558055556</v>
+      </c>
+      <c r="R24">
+        <v>2.35656770225</v>
+      </c>
+      <c r="S24">
+        <v>2.907544020806804E-05</v>
+      </c>
+      <c r="T24">
+        <v>2.907544020806803E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.1030903333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.309271</v>
+      </c>
+      <c r="I25">
+        <v>0.0007968852300522433</v>
+      </c>
+      <c r="J25">
+        <v>0.0007968852300522432</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>19.78662633333333</v>
+      </c>
+      <c r="N25">
+        <v>59.35987900000001</v>
+      </c>
+      <c r="O25">
+        <v>0.284238436599221</v>
+      </c>
+      <c r="P25">
+        <v>0.2842384365992209</v>
+      </c>
+      <c r="Q25">
+        <v>2.039809904245445</v>
+      </c>
+      <c r="R25">
+        <v>18.358289138209</v>
+      </c>
+      <c r="S25">
+        <v>0.0002265054119390602</v>
+      </c>
+      <c r="T25">
+        <v>0.0002265054119390601</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.008067</v>
+      </c>
+      <c r="H26">
+        <v>0.024201</v>
+      </c>
+      <c r="I26">
+        <v>6.235767159705999E-05</v>
+      </c>
+      <c r="J26">
+        <v>6.235767159705999E-05</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.6986340000000001</v>
+      </c>
+      <c r="N26">
+        <v>2.095902</v>
+      </c>
+      <c r="O26">
+        <v>0.0100360027308206</v>
+      </c>
+      <c r="P26">
+        <v>0.0100360027308206</v>
+      </c>
+      <c r="Q26">
+        <v>0.005635880478</v>
+      </c>
+      <c r="R26">
+        <v>0.050722924302</v>
+      </c>
+      <c r="S26">
+        <v>6.258217624357082E-07</v>
+      </c>
+      <c r="T26">
+        <v>6.258217624357081E-07</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.008067</v>
+      </c>
+      <c r="H27">
+        <v>0.024201</v>
+      </c>
+      <c r="I27">
+        <v>6.235767159705999E-05</v>
+      </c>
+      <c r="J27">
+        <v>6.235767159705999E-05</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>45.91636366666668</v>
+      </c>
+      <c r="N27">
+        <v>137.749091</v>
+      </c>
+      <c r="O27">
+        <v>0.6595968005393648</v>
+      </c>
+      <c r="P27">
+        <v>0.6595968005393646</v>
+      </c>
+      <c r="Q27">
+        <v>0.370407305699</v>
+      </c>
+      <c r="R27">
+        <v>3.333665751291</v>
+      </c>
+      <c r="S27">
+        <v>4.113092067450519E-05</v>
+      </c>
+      <c r="T27">
+        <v>4.113092067450518E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>34.2417632381682</v>
-      </c>
-      <c r="H19">
-        <v>34.2417632381682</v>
-      </c>
-      <c r="I19">
-        <v>0.2888460361009108</v>
-      </c>
-      <c r="J19">
-        <v>0.2888460361009108</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>16.0187424315542</v>
-      </c>
-      <c r="N19">
-        <v>16.0187424315542</v>
-      </c>
-      <c r="O19">
-        <v>0.2453334401771635</v>
-      </c>
-      <c r="P19">
-        <v>0.2453334401771635</v>
-      </c>
-      <c r="Q19">
-        <v>548.5099857144777</v>
-      </c>
-      <c r="R19">
-        <v>548.5099857144777</v>
-      </c>
-      <c r="S19">
-        <v>0.07086359171817358</v>
-      </c>
-      <c r="T19">
-        <v>0.07086359171817358</v>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.008067</v>
+      </c>
+      <c r="H28">
+        <v>0.024201</v>
+      </c>
+      <c r="I28">
+        <v>6.235767159705999E-05</v>
+      </c>
+      <c r="J28">
+        <v>6.235767159705999E-05</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.2330663333333333</v>
+      </c>
+      <c r="N28">
+        <v>0.699199</v>
+      </c>
+      <c r="O28">
+        <v>0.003348039685723394</v>
+      </c>
+      <c r="P28">
+        <v>0.003348039685723394</v>
+      </c>
+      <c r="Q28">
+        <v>0.001880146111</v>
+      </c>
+      <c r="R28">
+        <v>0.016921314999</v>
+      </c>
+      <c r="S28">
+        <v>2.087759592162633E-07</v>
+      </c>
+      <c r="T28">
+        <v>2.087759592162633E-07</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.008067</v>
+      </c>
+      <c r="H29">
+        <v>0.024201</v>
+      </c>
+      <c r="I29">
+        <v>6.235767159705999E-05</v>
+      </c>
+      <c r="J29">
+        <v>6.235767159705999E-05</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.4381680000000001</v>
+      </c>
+      <c r="N29">
+        <v>1.314504</v>
+      </c>
+      <c r="O29">
+        <v>0.006294361918484072</v>
+      </c>
+      <c r="P29">
+        <v>0.006294361918484071</v>
+      </c>
+      <c r="Q29">
+        <v>0.003534701256</v>
+      </c>
+      <c r="R29">
+        <v>0.031812311304</v>
+      </c>
+      <c r="S29">
+        <v>3.925017534258702E-07</v>
+      </c>
+      <c r="T29">
+        <v>3.925017534258702E-07</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.008067</v>
+      </c>
+      <c r="H30">
+        <v>0.024201</v>
+      </c>
+      <c r="I30">
+        <v>6.235767159705999E-05</v>
+      </c>
+      <c r="J30">
+        <v>6.235767159705999E-05</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.539916666666667</v>
+      </c>
+      <c r="N30">
+        <v>7.61975</v>
+      </c>
+      <c r="O30">
+        <v>0.03648635852638638</v>
+      </c>
+      <c r="P30">
+        <v>0.03648635852638638</v>
+      </c>
+      <c r="Q30">
+        <v>0.02048950775</v>
+      </c>
+      <c r="R30">
+        <v>0.18440556975</v>
+      </c>
+      <c r="S30">
+        <v>2.275204362760992E-06</v>
+      </c>
+      <c r="T30">
+        <v>2.275204362760991E-06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.008067</v>
+      </c>
+      <c r="H31">
+        <v>0.024201</v>
+      </c>
+      <c r="I31">
+        <v>6.235767159705999E-05</v>
+      </c>
+      <c r="J31">
+        <v>6.235767159705999E-05</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>19.78662633333333</v>
+      </c>
+      <c r="N31">
+        <v>59.35987900000001</v>
+      </c>
+      <c r="O31">
+        <v>0.284238436599221</v>
+      </c>
+      <c r="P31">
+        <v>0.2842384365992209</v>
+      </c>
+      <c r="Q31">
+        <v>0.159618714631</v>
+      </c>
+      <c r="R31">
+        <v>1.436568431679</v>
+      </c>
+      <c r="S31">
+        <v>1.772444708471598E-05</v>
+      </c>
+      <c r="T31">
+        <v>1.772444708471597E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>39.03529933333333</v>
+      </c>
+      <c r="H32">
+        <v>117.105898</v>
+      </c>
+      <c r="I32">
+        <v>0.3017417102418414</v>
+      </c>
+      <c r="J32">
+        <v>0.3017417102418414</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.6986340000000001</v>
+      </c>
+      <c r="N32">
+        <v>2.095902</v>
+      </c>
+      <c r="O32">
+        <v>0.0100360027308206</v>
+      </c>
+      <c r="P32">
+        <v>0.0100360027308206</v>
+      </c>
+      <c r="Q32">
+        <v>27.27138731444401</v>
+      </c>
+      <c r="R32">
+        <v>245.442485829996</v>
+      </c>
+      <c r="S32">
+        <v>0.003028280627989599</v>
+      </c>
+      <c r="T32">
+        <v>0.003028280627989598</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>39.03529933333333</v>
+      </c>
+      <c r="H33">
+        <v>117.105898</v>
+      </c>
+      <c r="I33">
+        <v>0.3017417102418414</v>
+      </c>
+      <c r="J33">
+        <v>0.3017417102418414</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>45.91636366666668</v>
+      </c>
+      <c r="N33">
+        <v>137.749091</v>
+      </c>
+      <c r="O33">
+        <v>0.6595968005393648</v>
+      </c>
+      <c r="P33">
+        <v>0.6595968005393646</v>
+      </c>
+      <c r="Q33">
+        <v>1792.359000026525</v>
+      </c>
+      <c r="R33">
+        <v>16131.23100023872</v>
+      </c>
+      <c r="S33">
+        <v>0.1990278666647947</v>
+      </c>
+      <c r="T33">
+        <v>0.1990278666647946</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>39.03529933333333</v>
+      </c>
+      <c r="H34">
+        <v>117.105898</v>
+      </c>
+      <c r="I34">
+        <v>0.3017417102418414</v>
+      </c>
+      <c r="J34">
+        <v>0.3017417102418414</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.2330663333333333</v>
+      </c>
+      <c r="N34">
+        <v>0.699199</v>
+      </c>
+      <c r="O34">
+        <v>0.003348039685723394</v>
+      </c>
+      <c r="P34">
+        <v>0.003348039685723394</v>
+      </c>
+      <c r="Q34">
+        <v>9.097814086189112</v>
+      </c>
+      <c r="R34">
+        <v>81.880326775702</v>
+      </c>
+      <c r="S34">
+        <v>0.001010243220727734</v>
+      </c>
+      <c r="T34">
+        <v>0.001010243220727734</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>39.03529933333333</v>
+      </c>
+      <c r="H35">
+        <v>117.105898</v>
+      </c>
+      <c r="I35">
+        <v>0.3017417102418414</v>
+      </c>
+      <c r="J35">
+        <v>0.3017417102418414</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.4381680000000001</v>
+      </c>
+      <c r="N35">
+        <v>1.314504</v>
+      </c>
+      <c r="O35">
+        <v>0.006294361918484072</v>
+      </c>
+      <c r="P35">
+        <v>0.006294361918484071</v>
+      </c>
+      <c r="Q35">
+        <v>17.104019038288</v>
+      </c>
+      <c r="R35">
+        <v>153.936171344592</v>
+      </c>
+      <c r="S35">
+        <v>0.001899271530164502</v>
+      </c>
+      <c r="T35">
+        <v>0.001899271530164501</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>39.03529933333333</v>
+      </c>
+      <c r="H36">
+        <v>117.105898</v>
+      </c>
+      <c r="I36">
+        <v>0.3017417102418414</v>
+      </c>
+      <c r="J36">
+        <v>0.3017417102418414</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.539916666666667</v>
+      </c>
+      <c r="N36">
+        <v>7.61975</v>
+      </c>
+      <c r="O36">
+        <v>0.03648635852638638</v>
+      </c>
+      <c r="P36">
+        <v>0.03648635852638638</v>
+      </c>
+      <c r="Q36">
+        <v>99.14640736505555</v>
+      </c>
+      <c r="R36">
+        <v>892.3176662855</v>
+      </c>
+      <c r="S36">
+        <v>0.01100945622224882</v>
+      </c>
+      <c r="T36">
+        <v>0.01100945622224882</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>39.03529933333333</v>
+      </c>
+      <c r="H37">
+        <v>117.105898</v>
+      </c>
+      <c r="I37">
+        <v>0.3017417102418414</v>
+      </c>
+      <c r="J37">
+        <v>0.3017417102418414</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>19.78662633333333</v>
+      </c>
+      <c r="N37">
+        <v>59.35987900000001</v>
+      </c>
+      <c r="O37">
+        <v>0.284238436599221</v>
+      </c>
+      <c r="P37">
+        <v>0.2842384365992209</v>
+      </c>
+      <c r="Q37">
+        <v>772.3768817184825</v>
+      </c>
+      <c r="R37">
+        <v>6951.391935466342</v>
+      </c>
+      <c r="S37">
+        <v>0.08576659197591616</v>
+      </c>
+      <c r="T37">
+        <v>0.08576659197591613</v>
       </c>
     </row>
   </sheetData>
